--- a/src/index_travel_accessibility/data/processed/travel_time_from_sample_to_hospital.xlsx
+++ b/src/index_travel_accessibility/data/processed/travel_time_from_sample_to_hospital.xlsx
@@ -703,16 +703,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>49.4571859</v>
+        <v>49.4590255</v>
       </c>
       <c r="F9" t="n">
-        <v>6.6315777</v>
+        <v>6.6299114</v>
       </c>
       <c r="G9" t="n">
-        <v>11.96</v>
+        <v>12.66</v>
       </c>
       <c r="H9" t="n">
-        <v>11.2</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="10">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.4571859</v>
+        <v>49.4590255</v>
       </c>
       <c r="F10" t="n">
-        <v>6.6315777</v>
+        <v>6.6299114</v>
       </c>
       <c r="G10" t="n">
-        <v>24.09</v>
+        <v>25.12</v>
       </c>
       <c r="H10" t="n">
-        <v>15.07</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11">

--- a/src/index_travel_accessibility/data/processed/travel_time_from_sample_to_hospital.xlsx
+++ b/src/index_travel_accessibility/data/processed/travel_time_from_sample_to_hospital.xlsx
@@ -523,16 +523,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>49.276946</v>
+        <v>49.2767351</v>
       </c>
       <c r="F3" t="n">
-        <v>6.8701212</v>
+        <v>6.8683942</v>
       </c>
       <c r="G3" t="n">
-        <v>8.92</v>
+        <v>9.43</v>
       </c>
       <c r="H3" t="n">
-        <v>5.62</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="4">

--- a/src/index_travel_accessibility/data/processed/travel_time_from_sample_to_hospital.xlsx
+++ b/src/index_travel_accessibility/data/processed/travel_time_from_sample_to_hospital.xlsx
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>49.2370854</v>
+        <v>49.2371047</v>
       </c>
       <c r="F4" t="n">
-        <v>6.9925905</v>
+        <v>6.9925617</v>
       </c>
       <c r="G4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.66</v>
       </c>
       <c r="H4" t="n">
         <v>4.64</v>
@@ -703,16 +703,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>49.4590255</v>
+        <v>49.4571859</v>
       </c>
       <c r="F9" t="n">
-        <v>6.6299114</v>
+        <v>6.6315777</v>
       </c>
       <c r="G9" t="n">
-        <v>12.66</v>
+        <v>11.96</v>
       </c>
       <c r="H9" t="n">
-        <v>11.26</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="10">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.4590255</v>
+        <v>49.4571859</v>
       </c>
       <c r="F10" t="n">
-        <v>6.6299114</v>
+        <v>6.6315777</v>
       </c>
       <c r="G10" t="n">
-        <v>25.12</v>
+        <v>24.09</v>
       </c>
       <c r="H10" t="n">
-        <v>16.5</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="11">

--- a/src/index_travel_accessibility/data/processed/travel_time_from_sample_to_hospital.xlsx
+++ b/src/index_travel_accessibility/data/processed/travel_time_from_sample_to_hospital.xlsx
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>49.2371047</v>
+        <v>49.2370854</v>
       </c>
       <c r="F4" t="n">
-        <v>6.9925617</v>
+        <v>6.9925905</v>
       </c>
       <c r="G4" t="n">
-        <v>8.66</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>4.64</v>

--- a/src/index_travel_accessibility/data/processed/travel_time_from_sample_to_hospital.xlsx
+++ b/src/index_travel_accessibility/data/processed/travel_time_from_sample_to_hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,16 +703,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>49.4590255</v>
+        <v>49.4571859</v>
       </c>
       <c r="F9" t="n">
-        <v>6.6299114</v>
+        <v>6.6315777</v>
       </c>
       <c r="G9" t="n">
-        <v>12.66</v>
+        <v>11.96</v>
       </c>
       <c r="H9" t="n">
-        <v>11.26</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="10">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.4590255</v>
+        <v>49.4571859</v>
       </c>
       <c r="F10" t="n">
-        <v>6.6299114</v>
+        <v>6.6315777</v>
       </c>
       <c r="G10" t="n">
-        <v>25.12</v>
+        <v>24.09</v>
       </c>
       <c r="H10" t="n">
-        <v>16.5</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="11">
@@ -1048,31 +1048,31 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Saarlouis</t>
+          <t>Saarpfalz-Kreis</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.45416103233337</v>
+        <v>49.16379333233336</v>
       </c>
       <c r="C21" t="n">
-        <v>6.914046861333361</v>
+        <v>7.119161333333362</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Caritas-Krankenhaus Lebach</t>
+          <t>Saarland-Heilstätten Gmbh  SHG-Kliniken Sonnenberg</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>49.4190916</v>
+        <v>49.1530091</v>
       </c>
       <c r="F21" t="n">
-        <v>6.88979</v>
+        <v>7.0483363</v>
       </c>
       <c r="G21" t="n">
-        <v>10.95</v>
+        <v>19.98</v>
       </c>
       <c r="H21" t="n">
-        <v>6.04</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="22">
@@ -1082,27 +1082,27 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.16379333233336</v>
+        <v>49.21267916566669</v>
       </c>
       <c r="C22" t="n">
-        <v>7.119161333333362</v>
+        <v>7.175744166666694</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Saarland-Heilstätten Gmbh  SHG-Kliniken Sonnenberg</t>
+          <t>Kreiskrankenhaus St. Ingbert GmbH</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>49.1530091</v>
+        <v>49.2905518</v>
       </c>
       <c r="F22" t="n">
-        <v>7.0483363</v>
+        <v>7.1131754</v>
       </c>
       <c r="G22" t="n">
-        <v>19.98</v>
+        <v>26.42</v>
       </c>
       <c r="H22" t="n">
-        <v>10.96</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="23">
@@ -1112,27 +1112,27 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.21267916566669</v>
+        <v>49.26156499900003</v>
       </c>
       <c r="C23" t="n">
-        <v>7.175744166666694</v>
+        <v>7.232327000000026</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Kreiskrankenhaus St. Ingbert GmbH</t>
+          <t>Marienhausklinik St. Josef Kohlhof</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>49.2905518</v>
+        <v>49.3177556</v>
       </c>
       <c r="F23" t="n">
-        <v>7.1131754</v>
+        <v>7.2270153</v>
       </c>
       <c r="G23" t="n">
-        <v>26.42</v>
+        <v>20.75</v>
       </c>
       <c r="H23" t="n">
-        <v>13.56</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="24">
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.26156499900003</v>
+        <v>49.31045083233337</v>
       </c>
       <c r="C24" t="n">
-        <v>7.232327000000026</v>
+        <v>7.288909833333359</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1159,70 +1159,70 @@
         <v>7.2270153</v>
       </c>
       <c r="G24" t="n">
-        <v>20.75</v>
+        <v>8.4</v>
       </c>
       <c r="H24" t="n">
-        <v>11.5</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Saarpfalz-Kreis</t>
+          <t>St. Wendel</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.31045083233337</v>
+        <v>49.52457882450005</v>
       </c>
       <c r="C25" t="n">
-        <v>7.288909833333359</v>
+        <v>7.030513554666736</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Marienhausklinik St. Josef Kohlhof</t>
+          <t>Klinikum Merzig gGmbH</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>49.3177556</v>
+        <v>49.5378676</v>
       </c>
       <c r="F25" t="n">
-        <v>7.2270153</v>
+        <v>6.8893404</v>
       </c>
       <c r="G25" t="n">
-        <v>8.4</v>
+        <v>23.67</v>
       </c>
       <c r="H25" t="n">
-        <v>5.91</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Saarpfalz-Kreis</t>
+          <t>St. Wendel</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.3593366656667</v>
+        <v>49.52457882450005</v>
       </c>
       <c r="C26" t="n">
-        <v>7.345492666666691</v>
+        <v>7.10004333200007</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>UKS - Universitätsklinikum des Saarlandes</t>
+          <t>Marienhaus Klinikum St. Wendel-Otweiler</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>49.308199</v>
+        <v>49.4539793</v>
       </c>
       <c r="F26" t="n">
-        <v>7.351777</v>
+        <v>7.1784916</v>
       </c>
       <c r="G26" t="n">
-        <v>19.25</v>
+        <v>17.76</v>
       </c>
       <c r="H26" t="n">
-        <v>8.199999999999999</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="27">
@@ -1235,144 +1235,24 @@
         <v>49.52457882450005</v>
       </c>
       <c r="C27" t="n">
-        <v>6.960983777333401</v>
+        <v>7.169573109333403</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Klinikum Merzig gGmbH</t>
+          <t>Saarland-Heilstätten Gmbh  SHG-Kliniken Sonnenberg</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>49.5378676</v>
+        <v>49.454659</v>
       </c>
       <c r="F27" t="n">
-        <v>6.8893404</v>
+        <v>7.186793</v>
       </c>
       <c r="G27" t="n">
-        <v>13.41</v>
+        <v>15.19</v>
       </c>
       <c r="H27" t="n">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>St. Wendel</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>49.52457882450005</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7.030513554666736</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Klinikum Merzig gGmbH</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>49.5378676</v>
-      </c>
-      <c r="F28" t="n">
-        <v>6.8893404</v>
-      </c>
-      <c r="G28" t="n">
-        <v>23.67</v>
-      </c>
-      <c r="H28" t="n">
-        <v>15.52</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>St. Wendel</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>49.52457882450005</v>
-      </c>
-      <c r="C29" t="n">
-        <v>7.10004333200007</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Marienhaus Klinikum St. Wendel-Otweiler</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>49.4539793</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7.1784916</v>
-      </c>
-      <c r="G29" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="H29" t="n">
-        <v>12.42</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>St. Wendel</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>49.52457882450005</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7.169573109333403</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Saarland-Heilstätten Gmbh  SHG-Kliniken Sonnenberg</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>49.454659</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7.186793</v>
-      </c>
-      <c r="G30" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="H30" t="n">
         <v>11.82</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>St. Wendel</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>49.56286538266672</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7.239102886666738</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Saarland-Heilstätten Gmbh  SHG-Kliniken Sonnenberg</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>49.454659</v>
-      </c>
-      <c r="F31" t="n">
-        <v>7.186793</v>
-      </c>
-      <c r="G31" t="n">
-        <v>24.64</v>
-      </c>
-      <c r="H31" t="n">
-        <v>18.77</v>
       </c>
     </row>
   </sheetData>
